--- a/console/Networking/podChExcel/podMixinsXlsx/components/create/containersBox_list.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/create/containersBox_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WeChat Files\dylan753071943\FileStorage\File\2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,9 +86,6 @@
     </r>
   </si>
   <si>
-    <t>Resources Restriction</t>
-  </si>
-  <si>
     <t>containersBox_list_i18nKey_5</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     </r>
   </si>
   <si>
-    <t>Resource Requirements</t>
-  </si>
-  <si>
     <t>containersBox_list_i18nKey_6</t>
   </si>
   <si>
@@ -155,13 +149,21 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Resource Requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource Restriction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +190,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,9 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +567,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,57 +615,58 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B8" numberStoredAsText="1"/>
   </ignoredErrors>
